--- a/biology/Botanique/Marais_de_Saint-Sulpice/Marais_de_Saint-Sulpice.xlsx
+++ b/biology/Botanique/Marais_de_Saint-Sulpice/Marais_de_Saint-Sulpice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les marais de Saint-Sulpice sont situés sur le territoire de la commune de Saint-Sulpice-de-Grimbouville, dans le département de l'Eure. Ils sont l'une des rares tourbières de France. Ils appartiennent au parc naturel régional des Boucles de la Seine normande et abritent une faune et une flore importantes[Lesquels ?]. 
 </t>
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les marais de Saint-Sulpice sont situés sur la rive gauche de la Risle, non loin du Marais-Vernier s'étendant sur l'autre rive jusqu'aux abords de la Seine.
 </t>
@@ -542,9 +556,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans ce paysage, le sentier de l'anguille et ses haltes pédagogiques permettent de découvrir le site qui figure parmi les tout premiers espaces naturels sensibles de l'Eure[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ce paysage, le sentier de l'anguille et ses haltes pédagogiques permettent de découvrir le site qui figure parmi les tout premiers espaces naturels sensibles de l'Eure.
 </t>
         </is>
       </c>
